--- a/doc/SwappingSystem.xlsx
+++ b/doc/SwappingSystem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RM\SwapMe\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
-  <si>
-    <t>Modules</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Recherche</t>
   </si>
   <si>
-    <t>Recherche (browse, carte, filtres…)</t>
-  </si>
-  <si>
-    <t>Profile (création, modification, affichage)</t>
-  </si>
-  <si>
     <t>Mise en relation</t>
   </si>
   <si>
@@ -102,6 +93,18 @@
   </si>
   <si>
     <t>Architecture site</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Angular DB -&gt; SQLite?</t>
+  </si>
+  <si>
+    <t>Serveur PHP avec API ?</t>
+  </si>
+  <si>
+    <t>Google Maps API / ngMaps ?</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L22"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,119 +558,102 @@
     <row r="1" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="J18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SwappingSystem.xlsx
+++ b/doc/SwappingSystem.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RM\SwapMe\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RM\Nodejs\SwapMe\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Recherche</t>
   </si>
@@ -98,13 +98,16 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Angular DB -&gt; SQLite?</t>
-  </si>
-  <si>
-    <t>Serveur PHP avec API ?</t>
-  </si>
-  <si>
-    <t>Google Maps API / ngMaps ?</t>
+    <t>Priorités</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Application des filtres (Cat -&gt; Map / List -&gt; Map (via searchEngine)</t>
+  </si>
+  <si>
+    <t>Navigation site</t>
   </si>
 </sst>
 </file>
@@ -218,16 +221,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,18 +558,18 @@
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:12" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -581,8 +584,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -601,12 +604,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>1</v>
@@ -621,7 +624,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
@@ -632,7 +641,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>20</v>
       </c>
@@ -643,7 +655,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
@@ -651,9 +666,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J21" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -668,16 +727,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/doc/SwappingSystem.xlsx
+++ b/doc/SwappingSystem.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
-  <si>
-    <t>Recherche</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Mise en relation</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>À faire</t>
-  </si>
-  <si>
     <t>Prioritaire</t>
   </si>
   <si>
@@ -90,24 +84,6 @@
   </si>
   <si>
     <t>Affichage profil</t>
-  </si>
-  <si>
-    <t>Architecture site</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Priorités</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Application des filtres (Cat -&gt; Map / List -&gt; Map (via searchEngine)</t>
-  </si>
-  <si>
-    <t>Navigation site</t>
   </si>
 </sst>
 </file>
@@ -222,22 +198,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -254,21 +230,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
             </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -542,15 +511,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A14:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -558,162 +532,114 @@
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="3" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="6" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,27 +649,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
